--- a/Reports.xlsx
+++ b/Reports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -23,21 +23,6 @@
     <t>Issue Description</t>
   </si>
   <si>
-    <t>68e24f9ad82690fabff6928c</t>
-  </si>
-  <si>
-    <t>administration</t>
-  </si>
-  <si>
-    <t>testt update4</t>
-  </si>
-  <si>
-    <t>68e257ff03f16c9a4024c6ec</t>
-  </si>
-  <si>
-    <t>testt2 update1</t>
-  </si>
-  <si>
     <t>68e2a590c81ee2895425b5dc</t>
   </si>
   <si>
@@ -45,6 +30,57 @@
   </si>
   <si>
     <t>test222</t>
+  </si>
+  <si>
+    <t>68e2a5a4c81ee2895425b5de</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>test43</t>
+  </si>
+  <si>
+    <t>68e2ab0425daed0c2275164e</t>
+  </si>
+  <si>
+    <t>finace2</t>
+  </si>
+  <si>
+    <t>68e2e45cc7671ab513d2fea9</t>
+  </si>
+  <si>
+    <t>68e2e664c7671ab513d2feab</t>
+  </si>
+  <si>
+    <t>68e2f073e27aaaa8d64c90fc</t>
+  </si>
+  <si>
+    <t>testing in progress</t>
+  </si>
+  <si>
+    <t>68e35d3ccdbe8c7cda057e50</t>
+  </si>
+  <si>
+    <t>finace244</t>
+  </si>
+  <si>
+    <t>68e394a861c8912bf5e59a1e</t>
+  </si>
+  <si>
+    <t>filteringtesttt</t>
+  </si>
+  <si>
+    <t>68e3984a42c09a1b4f966042</t>
+  </si>
+  <si>
+    <t>filteringtesttt1</t>
+  </si>
+  <si>
+    <t>68e399251a08d3c4a426542f</t>
+  </si>
+  <si>
+    <t>filteringtesttt2</t>
   </si>
 </sst>
 </file>
@@ -61,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,11 +109,6 @@
         <bgColor indexed="48"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <bgColor indexed="48"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -111,22 +142,22 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.5625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.7109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.93359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.60546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -156,21 +187,98 @@
         <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Reports.xlsx
+++ b/Reports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -23,64 +23,37 @@
     <t>Issue Description</t>
   </si>
   <si>
-    <t>68e2a590c81ee2895425b5dc</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>test222</t>
-  </si>
-  <si>
-    <t>68e2a5a4c81ee2895425b5de</t>
-  </si>
-  <si>
-    <t>finance</t>
-  </si>
-  <si>
-    <t>test43</t>
-  </si>
-  <si>
-    <t>68e2ab0425daed0c2275164e</t>
-  </si>
-  <si>
-    <t>finace2</t>
-  </si>
-  <si>
-    <t>68e2e45cc7671ab513d2fea9</t>
-  </si>
-  <si>
-    <t>68e2e664c7671ab513d2feab</t>
-  </si>
-  <si>
-    <t>68e2f073e27aaaa8d64c90fc</t>
-  </si>
-  <si>
-    <t>testing in progress</t>
-  </si>
-  <si>
-    <t>68e35d3ccdbe8c7cda057e50</t>
-  </si>
-  <si>
-    <t>finace244</t>
-  </si>
-  <si>
-    <t>68e394a861c8912bf5e59a1e</t>
-  </si>
-  <si>
-    <t>filteringtesttt</t>
-  </si>
-  <si>
-    <t>68e3984a42c09a1b4f966042</t>
-  </si>
-  <si>
-    <t>filteringtesttt1</t>
-  </si>
-  <si>
-    <t>68e399251a08d3c4a426542f</t>
-  </si>
-  <si>
-    <t>filteringtesttt2</t>
+    <t>68e41e9881bc31c42b1420d7</t>
+  </si>
+  <si>
+    <t>Customer Support</t>
+  </si>
+  <si>
+    <t>Just for tetsing of Customer Support dept by user</t>
+  </si>
+  <si>
+    <t>68e4252addace058e6ea2b97</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Finance Department related issue generated by manager</t>
+  </si>
+  <si>
+    <t>68e42aa38ad56cb452e18c97</t>
+  </si>
+  <si>
+    <t>68e42ae08ad56cb452e18c99</t>
+  </si>
+  <si>
+    <t>Department 5 related issue generated by manager</t>
+  </si>
+  <si>
+    <t>68e48e1f98f45f9e721f2950</t>
+  </si>
+  <si>
+    <t>Updating department by manager</t>
   </si>
 </sst>
 </file>
@@ -149,15 +122,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.93359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="46.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -201,18 +174,18 @@
         <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -223,62 +196,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
         <v>13</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Reports.xlsx
+++ b/Reports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Updating department by manager</t>
+  </si>
+  <si>
+    <t>68e4ab3619ff60df75ac5ef7</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Updating department by user</t>
   </si>
 </sst>
 </file>
@@ -61,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -69,8 +78,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,7 +93,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor indexed="48"/>
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
       </patternFill>
     </fill>
   </fills>
@@ -92,22 +111,22 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -115,21 +134,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="24.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.93359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.26171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="46.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -199,6 +218,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
